--- a/assets/template/4.xlsx
+++ b/assets/template/4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\borang\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA03289D-D507-4BFF-83DA-140C7F8C2BE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="3405" yWindow="3795" windowWidth="19680" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,14 @@
   <definedNames>
     <definedName name="diploma">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -92,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -295,6 +303,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -309,19 +323,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent 2" xfId="3"/>
+    <cellStyle name="Percent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -656,7 +664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -684,28 +692,28 @@
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="15" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
@@ -784,17 +792,17 @@
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19" t="e">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14" t="e">
         <f>AVERAGE(C7:E7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19" t="e">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14" t="e">
         <f>AVERAGE(G7:I7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -804,17 +812,17 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19" t="e">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14" t="e">
         <f t="shared" ref="F8:F19" si="0">AVERAGE(C8:E8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19" t="e">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14" t="e">
         <f t="shared" ref="J8:J19" si="1">AVERAGE(G8:I8)</f>
         <v>#DIV/0!</v>
       </c>
@@ -824,17 +832,17 @@
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19" t="e">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19" t="e">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -844,17 +852,17 @@
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19" t="e">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19" t="e">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -866,55 +874,55 @@
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19" t="e">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19" t="e">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="19">
+      <c r="B12" s="15"/>
+      <c r="C12" s="14">
         <f>SUM(C6:C11)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="14">
         <f>SUM(D6:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="14">
         <f>SUM(E6:E11)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="14">
         <f>SUM(G6:G11)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="14">
         <f>SUM(H6:H11)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="14">
         <f>SUM(I6:I11)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -926,17 +934,17 @@
       <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19" t="e">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19" t="e">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -948,55 +956,55 @@
       <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19" t="e">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19" t="e">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="19">
+      <c r="B15" s="15"/>
+      <c r="C15" s="14">
         <f>SUM(C13:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="14">
         <f>SUM(D13:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="14">
         <f>SUM(E13:E14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="14">
         <f>SUM(G13:G14)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="14">
         <f>SUM(H13:H14)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="14">
         <f>SUM(I13:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1008,17 +1016,17 @@
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19" t="e">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19" t="e">
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1030,17 +1038,17 @@
       <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19" t="e">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19" t="e">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1052,55 +1060,55 @@
       <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19" t="e">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19" t="e">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="19">
+      <c r="B19" s="15"/>
+      <c r="C19" s="14">
         <f>SUM(C16:C18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="14">
         <f>SUM(D16:D18)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="14">
         <f>SUM(E16:E18)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="14">
         <f>SUM(G16:G18)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="14">
         <f>SUM(H16:H18)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="14">
         <f>SUM(I16:I18)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
